--- a/oconeeCountySC.xlsx
+++ b/oconeeCountySC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62BBEFB-0363-B943-A55F-0AE41EE003BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36C82D6-0DD1-2641-8369-38F63942B053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{4AE96EF5-602B-A74E-86C2-19E719079597}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{4AE96EF5-602B-A74E-86C2-19E719079597}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="7">
   <si>
     <t>Week End</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Cumulative Cases</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>oconeeC</t>
   </si>
 </sst>
 </file>
@@ -103,12 +109,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,752 +430,897 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034DE182-6D63-5240-88C5-0C304C18E5A4}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>43911</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2">
-        <f>(B2/126884)*100000</f>
+      <c r="D2" s="4"/>
+      <c r="E2">
+        <f>(C2/126884)*100000</f>
         <v>0.78812143375051225</v>
       </c>
-      <c r="E2">
-        <f>B2</f>
+      <c r="F2">
+        <f>C2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>43918</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3">
-        <f t="shared" ref="D3:D35" si="0">(B3/126884)*100000</f>
+      <c r="D3" s="4"/>
+      <c r="E3">
+        <f t="shared" ref="E3:E43" si="0">(C3/126884)*100000</f>
         <v>2.3643643012515367</v>
       </c>
-      <c r="E3">
-        <f>E2+B3</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F43" si="1">F2+C3</f>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>43925</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4">
+      <c r="D4" s="4"/>
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>3.9406071687525612</v>
       </c>
-      <c r="E4">
-        <f>E3+B4</f>
+      <c r="F4">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>43932</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <f>AVERAGE(B2:B5)</f>
+      <c r="D5">
+        <f>AVERAGE(C2:C5)</f>
         <v>3.25</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>3.152485735002049</v>
       </c>
-      <c r="E5">
-        <f>E4+B5</f>
+      <c r="F5">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>43939</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="C6">
-        <f t="shared" ref="C6:C35" si="1">AVERAGE(B3:B6)</f>
+      <c r="D6">
+        <f t="shared" ref="D6:D43" si="2">AVERAGE(C3:C6)</f>
         <v>3.75</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>2.3643643012515367</v>
       </c>
-      <c r="E6">
-        <f>E5+B6</f>
+      <c r="F6">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>43946</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
+      <c r="D7">
+        <f t="shared" si="2"/>
         <v>4.25</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>3.9406071687525612</v>
       </c>
-      <c r="E7">
-        <f>E6+B7</f>
+      <c r="F7">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>43953</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>5</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
+      <c r="D8">
+        <f t="shared" si="2"/>
         <v>4.25</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>3.9406071687525612</v>
       </c>
-      <c r="E8">
-        <f>E7+B8</f>
+      <c r="F8">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>43960</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
+      <c r="D9">
+        <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>6.304971470004098</v>
       </c>
-      <c r="E9">
-        <f>E8+B9</f>
+      <c r="F9">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>43967</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>4.7287286025030735</v>
       </c>
-      <c r="E10">
-        <f>E9+B10</f>
+      <c r="F10">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
         <v>6.25</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>4.7287286025030735</v>
       </c>
-      <c r="E11">
-        <f>E10+B11</f>
+      <c r="F11">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>43981</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>4.7287286025030735</v>
       </c>
-      <c r="E12">
-        <f>E11+B12</f>
+      <c r="F12">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>43988</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
         <v>8</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
+      <c r="D13">
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>6.304971470004098</v>
       </c>
-      <c r="E13">
-        <f>E12+B13</f>
+      <c r="F13">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>43995</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
         <v>28</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
+      <c r="D14">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>22.067400145014343</v>
       </c>
-      <c r="E14">
-        <f>E13+B14</f>
+      <c r="F14">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>44002</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
         <v>46</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
+      <c r="D15">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>36.253585952523565</v>
       </c>
-      <c r="E15">
-        <f>E14+B15</f>
+      <c r="F15">
+        <f t="shared" si="1"/>
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>44009</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
         <v>118</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
+      <c r="D16">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>92.998329182560454</v>
       </c>
-      <c r="E16">
-        <f>E15+B16</f>
+      <c r="F16">
+        <f t="shared" si="1"/>
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>44016</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>90</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
+      <c r="D17">
+        <f t="shared" si="2"/>
         <v>70.5</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>70.930929037546107</v>
       </c>
-      <c r="E17">
-        <f>E16+B17</f>
+      <c r="F17">
+        <f t="shared" si="1"/>
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>44023</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
         <v>116</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
+      <c r="D18">
+        <f t="shared" si="2"/>
         <v>92.5</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>91.422086315059431</v>
       </c>
-      <c r="E18">
-        <f>E17+B18</f>
+      <c r="F18">
+        <f t="shared" si="1"/>
         <v>458</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>44030</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
         <v>111</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
+      <c r="D19">
+        <f t="shared" si="2"/>
         <v>108.75</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>87.481479146306867</v>
       </c>
-      <c r="E19">
-        <f>E18+B19</f>
+      <c r="F19">
+        <f t="shared" si="1"/>
         <v>569</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>44037</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
         <v>94</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
+      <c r="D20">
+        <f t="shared" si="2"/>
         <v>102.75</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>74.083414772548153</v>
       </c>
-      <c r="E20">
-        <f>E19+B20</f>
+      <c r="F20">
+        <f t="shared" si="1"/>
         <v>663</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>44044</v>
       </c>
-      <c r="B21">
-        <v>98</v>
+      <c r="B21" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
-        <v>104.75</v>
+        <v>97</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>77.235900507550198</v>
+        <f t="shared" si="2"/>
+        <v>104.5</v>
       </c>
       <c r="E21">
-        <f>E20+B21</f>
-        <v>761</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>76.447779073799694</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>44051</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
         <v>74</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>94.25</v>
-      </c>
       <c r="D22">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>58.320986097537912</v>
       </c>
-      <c r="E22">
-        <f>E21+B22</f>
-        <v>835</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>44058</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
         <v>53</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>79.75</v>
-      </c>
       <c r="D23">
+        <f t="shared" si="2"/>
+        <v>79.5</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>41.770435988777152</v>
       </c>
-      <c r="E23">
-        <f>E22+B23</f>
-        <v>888</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>44065</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
         <v>65</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>72.5</v>
-      </c>
       <c r="D24">
+        <f t="shared" si="2"/>
+        <v>72.25</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>51.227893193783302</v>
       </c>
-      <c r="E24">
-        <f>E23+B24</f>
-        <v>953</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>44072</v>
       </c>
-      <c r="B25">
-        <v>117</v>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
-        <v>77.25</v>
+        <v>115</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>92.210207748809935</v>
+        <f t="shared" si="2"/>
+        <v>76.75</v>
       </c>
       <c r="E25">
-        <f>E24+B25</f>
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>90.633964881308913</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>44079</v>
       </c>
-      <c r="B26">
-        <v>111</v>
+      <c r="B26" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
-        <v>86.5</v>
+        <v>110</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>87.481479146306867</v>
+        <f t="shared" si="2"/>
+        <v>85.75</v>
       </c>
       <c r="E26">
-        <f>E25+B26</f>
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>86.693357712556349</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>44086</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
         <v>108</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>100.25</v>
-      </c>
       <c r="D27">
+        <f t="shared" si="2"/>
+        <v>99.5</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>85.117114845055326</v>
       </c>
-      <c r="E27">
-        <f>E26+B27</f>
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>44093</v>
       </c>
-      <c r="B28">
-        <v>152</v>
+      <c r="B28" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>119.79445793007787</v>
+        <f t="shared" si="2"/>
+        <v>121</v>
       </c>
       <c r="E28">
-        <f>E27+B28</f>
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>119.00633649632735</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>44100</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
         <v>221</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="1"/>
-        <v>148</v>
-      </c>
       <c r="D29">
+        <f t="shared" si="2"/>
+        <v>147.5</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>174.17483685886322</v>
       </c>
-      <c r="E29">
-        <f>E28+B29</f>
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>44107</v>
       </c>
-      <c r="B30">
-        <v>287</v>
+      <c r="B30" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>226.19085148639704</v>
+        <f t="shared" si="2"/>
+        <v>191.5</v>
       </c>
       <c r="E30">
-        <f>E29+B30</f>
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>225.40273005264652</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>44114</v>
       </c>
-      <c r="B31">
-        <v>190</v>
+      <c r="B31" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
-        <v>212.5</v>
+        <v>188</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>149.74307241259731</v>
+        <f t="shared" si="2"/>
+        <v>211.5</v>
       </c>
       <c r="E31">
-        <f>E30+B31</f>
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>148.16682954509631</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>44121</v>
       </c>
-      <c r="B32">
-        <v>169</v>
+      <c r="B32" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
-        <v>216.75</v>
+        <v>166</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>133.1925223038366</v>
+        <f t="shared" si="2"/>
+        <v>215.25</v>
       </c>
       <c r="E32">
-        <f>E31+B32</f>
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>130.82815800258504</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>44128</v>
       </c>
-      <c r="B33">
-        <v>135</v>
+      <c r="B33" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
-        <v>195.25</v>
+        <v>134</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>106.39639355631915</v>
+        <f t="shared" si="2"/>
+        <v>193.5</v>
       </c>
       <c r="E33">
-        <f>E32+B33</f>
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>105.60827212256865</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>44135</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
         <v>114</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>152</v>
-      </c>
       <c r="D34">
+        <f t="shared" si="2"/>
+        <v>150.5</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>89.845843447558394</v>
       </c>
-      <c r="E34">
-        <f>E33+B34</f>
-        <v>2557</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>44142</v>
       </c>
-      <c r="B35">
-        <v>98</v>
+      <c r="B35" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>77.235900507550198</v>
+        <f t="shared" si="2"/>
+        <v>128.25</v>
       </c>
       <c r="E35">
-        <f>E34+B35</f>
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>78.024021941300717</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>44149</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="B36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>163</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>127.5</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>128.46379370133349</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>44156</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="B37" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>44163</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="B38" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>44170</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="B39" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>44177</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="B40" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>44184</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="B41" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>44191</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="B42" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>44198</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C5:C34" formulaRange="1"/>
+    <ignoredError sqref="D5:D34" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/oconeeCountySC.xlsx
+++ b/oconeeCountySC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABE227D-69DE-2A40-84E3-127382A4E224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D5A6A2-B828-9A48-9015-B6C636F0E1E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="14360" windowHeight="16120" xr2:uid="{4AE96EF5-602B-A74E-86C2-19E719079597}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,6 +130,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -164,7 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -174,6 +181,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034DE182-6D63-5240-88C5-0C304C18E5A4}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -542,7 +550,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D40" si="0">(B3/79546)*100000</f>
+        <f t="shared" ref="D3:D41" si="0">(B3/79546)*100000</f>
         <v>3.7714027103814147</v>
       </c>
     </row>
@@ -554,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="6">
-        <f t="shared" ref="C4:C40" si="1">(B4-B3)/B4</f>
+        <f t="shared" ref="C4:C41" si="1">(B4-B3)/B4</f>
         <v>0.4</v>
       </c>
       <c r="D4">
@@ -1127,15 +1135,31 @@
         <v>44177</v>
       </c>
       <c r="B40">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="C40" s="6">
         <f t="shared" si="1"/>
-        <v>1.7857142857142856E-2</v>
+        <v>5.1724137931034482E-2</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>492.79662082317145</v>
+        <v>510.39650013828481</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="9">
+        <v>44184</v>
+      </c>
+      <c r="B41">
+        <v>210</v>
+      </c>
+      <c r="C41" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.93333333333333335</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>263.99818972669902</v>
       </c>
     </row>
   </sheetData>

--- a/oconeeCountySC.xlsx
+++ b/oconeeCountySC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D5A6A2-B828-9A48-9015-B6C636F0E1E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444F648B-F6FE-D741-9A90-4DA94F8C49C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="14360" windowHeight="16120" xr2:uid="{4AE96EF5-602B-A74E-86C2-19E719079597}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,13 +129,6 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -181,7 +174,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034DE182-6D63-5240-88C5-0C304C18E5A4}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1119,15 +1112,15 @@
         <v>44170</v>
       </c>
       <c r="B39">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C39" s="6">
         <f t="shared" si="1"/>
-        <v>0.16103896103896104</v>
+        <v>0.1717948717948718</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>483.99668116561486</v>
+        <v>490.2823523495839</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1135,15 +1128,15 @@
         <v>44177</v>
       </c>
       <c r="B40">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C40" s="6">
         <f t="shared" si="1"/>
-        <v>5.1724137931034482E-2</v>
+        <v>5.1094890510948905E-2</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>510.39650013828481</v>
+        <v>516.68217132225379</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1151,15 +1144,63 @@
         <v>44184</v>
       </c>
       <c r="B41">
-        <v>210</v>
+        <v>407</v>
       </c>
       <c r="C41" s="6">
         <f t="shared" si="1"/>
-        <v>-0.93333333333333335</v>
+        <v>-9.8280098280098278E-3</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>263.99818972669902</v>
+        <v>511.65363437507852</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B42">
+        <v>419</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" ref="C42:C44" si="2">(B42-B41)/B42</f>
+        <v>2.8639618138424822E-2</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:D44" si="3">(B42/79546)*100000</f>
+        <v>526.73924521660422</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B43">
+        <v>443</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4176072234762979E-2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="3"/>
+        <v>556.91046689965549</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="9">
+        <v>44205</v>
+      </c>
+      <c r="B44">
+        <v>405</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="2"/>
+        <v>-9.3827160493827166E-2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="3"/>
+        <v>509.13936590149098</v>
       </c>
     </row>
   </sheetData>
